--- a/FORM 16 OF PRASUN, PABITRA & JATAN/savings.xlsx
+++ b/FORM 16 OF PRASUN, PABITRA & JATAN/savings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="810" windowWidth="19575" windowHeight="7080"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="219">
   <si>
     <t>NAME</t>
   </si>
@@ -555,6 +555,9 @@
     <t>MRINMOY MUKHERJEE</t>
   </si>
   <si>
+    <t>BQCPM7242P</t>
+  </si>
+  <si>
     <t>ASHUTOSH KUMAR</t>
   </si>
   <si>
@@ -600,28 +603,76 @@
     <t>PRASENJIT BISWAS</t>
   </si>
   <si>
+    <t>BRTPB2647B</t>
+  </si>
+  <si>
     <t>L. DHANCHANDRA SINGH</t>
   </si>
   <si>
+    <t>AELPL6906M</t>
+  </si>
+  <si>
     <t>RAHUL KUMAR SONI</t>
   </si>
   <si>
+    <t>HNMPC3735J</t>
+  </si>
+  <si>
     <t>SUNIL KUMAR MAHATO</t>
   </si>
   <si>
-    <t>AELPL6906M</t>
-  </si>
-  <si>
-    <t>BRTPB2647B</t>
-  </si>
-  <si>
-    <t>BQCPM7242P</t>
-  </si>
-  <si>
     <t>BNKPM7494Q</t>
   </si>
   <si>
-    <t>HNMPC3735J</t>
+    <t xml:space="preserve">BASIC </t>
+  </si>
+  <si>
+    <t>BASIC1</t>
+  </si>
+  <si>
+    <t>SPLPAY</t>
+  </si>
+  <si>
+    <t>QPAY</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>OTHER1</t>
+  </si>
+  <si>
+    <t>GRINSURANC</t>
+  </si>
+  <si>
+    <t>GPFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIC </t>
+  </si>
+  <si>
+    <t>PTAX</t>
+  </si>
+  <si>
+    <t>CGHS</t>
+  </si>
+  <si>
+    <t>ITAX</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2199,15 +2250,15 @@
         <v>178</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H84">
         <v>35400</v>
@@ -2218,34 +2269,34 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E88">
         <v>1500</v>
@@ -2256,18 +2307,18 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D90">
         <v>66700</v>
@@ -2281,15 +2332,15 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s">
         <v>197</v>
@@ -2297,18 +2348,18 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D94">
         <v>13850</v>
@@ -2321,13 +2372,5273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>275349</v>
+      </c>
+      <c r="D2">
+        <v>5837</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>13200</v>
+      </c>
+      <c r="H2">
+        <v>3544</v>
+      </c>
+      <c r="I2">
+        <v>52668</v>
+      </c>
+      <c r="J2">
+        <v>12420</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>360</v>
+      </c>
+      <c r="N2">
+        <v>26086</v>
+      </c>
+      <c r="O2">
+        <v>12252</v>
+      </c>
+      <c r="P2">
+        <v>1720</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>220</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>466908</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>35200</v>
+      </c>
+      <c r="H3">
+        <v>9440</v>
+      </c>
+      <c r="I3">
+        <v>91500</v>
+      </c>
+      <c r="J3">
+        <v>23000</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>720</v>
+      </c>
+      <c r="N3">
+        <v>48302</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2400</v>
+      </c>
+      <c r="Q3">
+        <v>5175</v>
+      </c>
+      <c r="R3">
+        <v>12450</v>
+      </c>
+      <c r="S3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>443165</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>240</v>
+      </c>
+      <c r="G4">
+        <v>35200</v>
+      </c>
+      <c r="H4">
+        <v>9440</v>
+      </c>
+      <c r="I4">
+        <v>87133</v>
+      </c>
+      <c r="J4">
+        <v>21556</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>420</v>
+      </c>
+      <c r="N4">
+        <v>45708</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2400</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>18280</v>
+      </c>
+      <c r="S4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>466908</v>
+      </c>
+      <c r="D5">
+        <v>13545</v>
+      </c>
+      <c r="E5">
+        <v>13200</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>35200</v>
+      </c>
+      <c r="H5">
+        <v>9440</v>
+      </c>
+      <c r="I5">
+        <v>91500</v>
+      </c>
+      <c r="J5">
+        <v>23000</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>720</v>
+      </c>
+      <c r="N5">
+        <v>48302</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2400</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>10490</v>
+      </c>
+      <c r="S5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>261308</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>13200</v>
+      </c>
+      <c r="H6">
+        <v>3544</v>
+      </c>
+      <c r="I6">
+        <v>52668</v>
+      </c>
+      <c r="J6">
+        <v>12420</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>360</v>
+      </c>
+      <c r="N6">
+        <v>26086</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1720</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>260308</v>
+      </c>
+      <c r="D7">
+        <v>-1200</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>13200</v>
+      </c>
+      <c r="H7">
+        <v>3544</v>
+      </c>
+      <c r="I7">
+        <v>52668</v>
+      </c>
+      <c r="J7">
+        <v>12420</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>360</v>
+      </c>
+      <c r="N7">
+        <v>26086</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1720</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>260308</v>
+      </c>
+      <c r="D8">
+        <v>7037</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>13200</v>
+      </c>
+      <c r="H8">
+        <v>3544</v>
+      </c>
+      <c r="I8">
+        <v>52668</v>
+      </c>
+      <c r="J8">
+        <v>12420</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>360</v>
+      </c>
+      <c r="N8">
+        <v>26086</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1720</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>254108</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>13200</v>
+      </c>
+      <c r="H9">
+        <v>3544</v>
+      </c>
+      <c r="I9">
+        <v>52392</v>
+      </c>
+      <c r="J9">
+        <v>12060</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>360</v>
+      </c>
+      <c r="N9">
+        <v>25328</v>
+      </c>
+      <c r="O9">
+        <v>12252</v>
+      </c>
+      <c r="P9">
+        <v>1720</v>
+      </c>
+      <c r="Q9">
+        <v>1792</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>260308</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>13200</v>
+      </c>
+      <c r="H10">
+        <v>3544</v>
+      </c>
+      <c r="I10">
+        <v>52668</v>
+      </c>
+      <c r="J10">
+        <v>12420</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>360</v>
+      </c>
+      <c r="N10">
+        <v>26086</v>
+      </c>
+      <c r="O10">
+        <v>30024</v>
+      </c>
+      <c r="P10">
+        <v>1720</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>254108</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>13200</v>
+      </c>
+      <c r="H11">
+        <v>3544</v>
+      </c>
+      <c r="I11">
+        <v>52392</v>
+      </c>
+      <c r="J11">
+        <v>12060</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>360</v>
+      </c>
+      <c r="N11">
+        <v>25328</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1720</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>253108</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>13200</v>
+      </c>
+      <c r="H12">
+        <v>3544</v>
+      </c>
+      <c r="I12">
+        <v>52392</v>
+      </c>
+      <c r="J12">
+        <v>12060</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>360</v>
+      </c>
+      <c r="N12">
+        <v>25328</v>
+      </c>
+      <c r="O12">
+        <v>12252</v>
+      </c>
+      <c r="P12">
+        <v>1720</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>254108</v>
+      </c>
+      <c r="D13">
+        <v>6829</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>13200</v>
+      </c>
+      <c r="H13">
+        <v>3544</v>
+      </c>
+      <c r="I13">
+        <v>52392</v>
+      </c>
+      <c r="J13">
+        <v>12060</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>360</v>
+      </c>
+      <c r="N13">
+        <v>25328</v>
+      </c>
+      <c r="O13">
+        <v>5766</v>
+      </c>
+      <c r="P13">
+        <v>1720</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>466908</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>35200</v>
+      </c>
+      <c r="H14">
+        <v>9440</v>
+      </c>
+      <c r="I14">
+        <v>91500</v>
+      </c>
+      <c r="J14">
+        <v>23000</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>720</v>
+      </c>
+      <c r="N14">
+        <v>48302</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2400</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11810</v>
+      </c>
+      <c r="S14">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>489808</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>6840</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>35200</v>
+      </c>
+      <c r="H15">
+        <v>9440</v>
+      </c>
+      <c r="I15">
+        <v>96000</v>
+      </c>
+      <c r="J15">
+        <v>24060</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>720</v>
+      </c>
+      <c r="N15">
+        <v>51213</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2400</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1214</v>
+      </c>
+      <c r="S15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>466908</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>35200</v>
+      </c>
+      <c r="H16">
+        <v>9440</v>
+      </c>
+      <c r="I16">
+        <v>91500</v>
+      </c>
+      <c r="J16">
+        <v>23000</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>720</v>
+      </c>
+      <c r="N16">
+        <v>48302</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2400</v>
+      </c>
+      <c r="Q16">
+        <v>3159</v>
+      </c>
+      <c r="R16">
+        <v>19000</v>
+      </c>
+      <c r="S16">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>466908</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>35200</v>
+      </c>
+      <c r="H17">
+        <v>9440</v>
+      </c>
+      <c r="I17">
+        <v>91500</v>
+      </c>
+      <c r="J17">
+        <v>23000</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>720</v>
+      </c>
+      <c r="N17">
+        <v>48302</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2400</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>6900</v>
+      </c>
+      <c r="S17">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>466908</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>35200</v>
+      </c>
+      <c r="H18">
+        <v>9440</v>
+      </c>
+      <c r="I18">
+        <v>91500</v>
+      </c>
+      <c r="J18">
+        <v>23000</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>720</v>
+      </c>
+      <c r="N18">
+        <v>48302</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>2400</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>7580</v>
+      </c>
+      <c r="S18">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>488108</v>
+      </c>
+      <c r="D19">
+        <v>14385</v>
+      </c>
+      <c r="E19">
+        <v>6840</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>35200</v>
+      </c>
+      <c r="H19">
+        <v>9440</v>
+      </c>
+      <c r="I19">
+        <v>96000</v>
+      </c>
+      <c r="J19">
+        <v>24060</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>720</v>
+      </c>
+      <c r="N19">
+        <v>51213</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>2400</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>31210</v>
+      </c>
+      <c r="S19">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>480908</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>35200</v>
+      </c>
+      <c r="H20">
+        <v>9440</v>
+      </c>
+      <c r="I20">
+        <v>94272</v>
+      </c>
+      <c r="J20">
+        <v>23700</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>720</v>
+      </c>
+      <c r="N20">
+        <v>49774</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2400</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>2360</v>
+      </c>
+      <c r="S20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>364670</v>
+      </c>
+      <c r="D21">
+        <v>-1200</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>35200</v>
+      </c>
+      <c r="H21">
+        <v>9440</v>
+      </c>
+      <c r="I21">
+        <v>68112</v>
+      </c>
+      <c r="J21">
+        <v>17060</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>360</v>
+      </c>
+      <c r="N21">
+        <v>35830</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2200</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>9290</v>
+      </c>
+      <c r="S21">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>348108</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>35200</v>
+      </c>
+      <c r="H22">
+        <v>9440</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>17060</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>360</v>
+      </c>
+      <c r="N22">
+        <v>35830</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1800</v>
+      </c>
+      <c r="Q22">
+        <v>2875</v>
+      </c>
+      <c r="R22">
+        <v>1240</v>
+      </c>
+      <c r="S22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>348108</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>35200</v>
+      </c>
+      <c r="H23">
+        <v>9440</v>
+      </c>
+      <c r="I23">
+        <v>68112</v>
+      </c>
+      <c r="J23">
+        <v>17060</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>360</v>
+      </c>
+      <c r="N23">
+        <v>35830</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2200</v>
+      </c>
+      <c r="Q23">
+        <v>1791</v>
+      </c>
+      <c r="R23">
+        <v>5630</v>
+      </c>
+      <c r="S23">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24">
+        <v>348108</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>35200</v>
+      </c>
+      <c r="H24">
+        <v>9440</v>
+      </c>
+      <c r="I24">
+        <v>68112</v>
+      </c>
+      <c r="J24">
+        <v>17060</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>360</v>
+      </c>
+      <c r="N24">
+        <v>35830</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>2200</v>
+      </c>
+      <c r="Q24">
+        <v>1792</v>
+      </c>
+      <c r="R24">
+        <v>1720</v>
+      </c>
+      <c r="S24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>348108</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>35200</v>
+      </c>
+      <c r="H25">
+        <v>9440</v>
+      </c>
+      <c r="I25">
+        <v>68112</v>
+      </c>
+      <c r="J25">
+        <v>17060</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>360</v>
+      </c>
+      <c r="N25">
+        <v>35830</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>2200</v>
+      </c>
+      <c r="Q25">
+        <v>1000</v>
+      </c>
+      <c r="R25">
+        <v>5310</v>
+      </c>
+      <c r="S25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>265708</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3994</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>13200</v>
+      </c>
+      <c r="H26">
+        <v>3544</v>
+      </c>
+      <c r="I26">
+        <v>52476</v>
+      </c>
+      <c r="J26">
+        <v>12940</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>360</v>
+      </c>
+      <c r="N26">
+        <v>27176</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1720</v>
+      </c>
+      <c r="Q26">
+        <v>1792</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>489308</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>6840</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>35200</v>
+      </c>
+      <c r="H27">
+        <v>9440</v>
+      </c>
+      <c r="I27">
+        <v>96048</v>
+      </c>
+      <c r="J27">
+        <v>24060</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>720</v>
+      </c>
+      <c r="N27">
+        <v>51213</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>2400</v>
+      </c>
+      <c r="Q27">
+        <v>5175</v>
+      </c>
+      <c r="R27">
+        <v>7000</v>
+      </c>
+      <c r="S27">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>431875</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>240</v>
+      </c>
+      <c r="G28">
+        <v>35200</v>
+      </c>
+      <c r="H28">
+        <v>9440</v>
+      </c>
+      <c r="I28">
+        <v>85084</v>
+      </c>
+      <c r="J28">
+        <v>21061</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>420</v>
+      </c>
+      <c r="N28">
+        <v>44436</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>2350</v>
+      </c>
+      <c r="Q28">
+        <v>2659</v>
+      </c>
+      <c r="R28">
+        <v>9010</v>
+      </c>
+      <c r="S28">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>430175</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>240</v>
+      </c>
+      <c r="G29">
+        <v>35200</v>
+      </c>
+      <c r="H29">
+        <v>9440</v>
+      </c>
+      <c r="I29">
+        <v>85084</v>
+      </c>
+      <c r="J29">
+        <v>21061</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>420</v>
+      </c>
+      <c r="N29">
+        <v>44436</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>2350</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>8790</v>
+      </c>
+      <c r="S29">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30">
+        <v>430175</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>12000</v>
+      </c>
+      <c r="F30">
+        <v>240</v>
+      </c>
+      <c r="G30">
+        <v>35200</v>
+      </c>
+      <c r="H30">
+        <v>9440</v>
+      </c>
+      <c r="I30">
+        <v>85084</v>
+      </c>
+      <c r="J30">
+        <v>21061</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>420</v>
+      </c>
+      <c r="N30">
+        <v>44436</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>2350</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>17840</v>
+      </c>
+      <c r="S30">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>431875</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>240</v>
+      </c>
+      <c r="G31">
+        <v>35200</v>
+      </c>
+      <c r="H31">
+        <v>9440</v>
+      </c>
+      <c r="I31">
+        <v>85084</v>
+      </c>
+      <c r="J31">
+        <v>21061</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>420</v>
+      </c>
+      <c r="N31">
+        <v>44436</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>2350</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>7690</v>
+      </c>
+      <c r="S31">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>431875</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>240</v>
+      </c>
+      <c r="G32">
+        <v>35200</v>
+      </c>
+      <c r="H32">
+        <v>9440</v>
+      </c>
+      <c r="I32">
+        <v>85084</v>
+      </c>
+      <c r="J32">
+        <v>21061</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>420</v>
+      </c>
+      <c r="N32">
+        <v>44436</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>2350</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>5570</v>
+      </c>
+      <c r="S32">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33">
+        <v>430175</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>240</v>
+      </c>
+      <c r="G33">
+        <v>35200</v>
+      </c>
+      <c r="H33">
+        <v>9440</v>
+      </c>
+      <c r="I33">
+        <v>85084</v>
+      </c>
+      <c r="J33">
+        <v>21061</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>420</v>
+      </c>
+      <c r="N33">
+        <v>44436</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>2350</v>
+      </c>
+      <c r="Q33">
+        <v>2659</v>
+      </c>
+      <c r="R33">
+        <v>11640</v>
+      </c>
+      <c r="S33">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <v>430175</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>240</v>
+      </c>
+      <c r="G34">
+        <v>35200</v>
+      </c>
+      <c r="H34">
+        <v>9440</v>
+      </c>
+      <c r="I34">
+        <v>85084</v>
+      </c>
+      <c r="J34">
+        <v>21061</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>420</v>
+      </c>
+      <c r="N34">
+        <v>44436</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>2350</v>
+      </c>
+      <c r="Q34">
+        <v>2659</v>
+      </c>
+      <c r="R34">
+        <v>1470</v>
+      </c>
+      <c r="S34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35">
+        <v>431875</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>240</v>
+      </c>
+      <c r="G35">
+        <v>35200</v>
+      </c>
+      <c r="H35">
+        <v>9440</v>
+      </c>
+      <c r="I35">
+        <v>85084</v>
+      </c>
+      <c r="J35">
+        <v>21061</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>420</v>
+      </c>
+      <c r="N35">
+        <v>44436</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>2350</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>11320</v>
+      </c>
+      <c r="S35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36">
+        <v>429215</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>240</v>
+      </c>
+      <c r="G36">
+        <v>35200</v>
+      </c>
+      <c r="H36">
+        <v>9440</v>
+      </c>
+      <c r="I36">
+        <v>84631</v>
+      </c>
+      <c r="J36">
+        <v>20986</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>420</v>
+      </c>
+      <c r="N36">
+        <v>44332</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>2300</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>9940</v>
+      </c>
+      <c r="S36">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <v>433675</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>240</v>
+      </c>
+      <c r="G37">
+        <v>35200</v>
+      </c>
+      <c r="H37">
+        <v>9440</v>
+      </c>
+      <c r="I37">
+        <v>85084</v>
+      </c>
+      <c r="J37">
+        <v>21061</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>420</v>
+      </c>
+      <c r="N37">
+        <v>44436</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>2350</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>15780</v>
+      </c>
+      <c r="S37">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <v>429215</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>240</v>
+      </c>
+      <c r="G38">
+        <v>35200</v>
+      </c>
+      <c r="H38">
+        <v>9440</v>
+      </c>
+      <c r="I38">
+        <v>84631</v>
+      </c>
+      <c r="J38">
+        <v>20986</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>420</v>
+      </c>
+      <c r="N38">
+        <v>44332</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>2300</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>10220</v>
+      </c>
+      <c r="S38">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39">
+        <v>429215</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>240</v>
+      </c>
+      <c r="G39">
+        <v>35200</v>
+      </c>
+      <c r="H39">
+        <v>9440</v>
+      </c>
+      <c r="I39">
+        <v>84631</v>
+      </c>
+      <c r="J39">
+        <v>20986</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>420</v>
+      </c>
+      <c r="N39">
+        <v>44332</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>2300</v>
+      </c>
+      <c r="Q39">
+        <v>3600</v>
+      </c>
+      <c r="R39">
+        <v>10870</v>
+      </c>
+      <c r="S39">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40">
+        <v>515008</v>
+      </c>
+      <c r="D40">
+        <v>-1200</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>35200</v>
+      </c>
+      <c r="H40">
+        <v>9440</v>
+      </c>
+      <c r="I40">
+        <v>97056</v>
+      </c>
+      <c r="J40">
+        <v>24420</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>720</v>
+      </c>
+      <c r="N40">
+        <v>51284</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>2400</v>
+      </c>
+      <c r="Q40">
+        <v>3159</v>
+      </c>
+      <c r="R40">
+        <v>22790</v>
+      </c>
+      <c r="S40">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41">
+        <v>431875</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>240</v>
+      </c>
+      <c r="G41">
+        <v>35200</v>
+      </c>
+      <c r="H41">
+        <v>9440</v>
+      </c>
+      <c r="I41">
+        <v>85084</v>
+      </c>
+      <c r="J41">
+        <v>21061</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>420</v>
+      </c>
+      <c r="N41">
+        <v>44436</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>2350</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>5020</v>
+      </c>
+      <c r="S41">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42">
+        <v>431875</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>240</v>
+      </c>
+      <c r="G42">
+        <v>35200</v>
+      </c>
+      <c r="H42">
+        <v>9440</v>
+      </c>
+      <c r="I42">
+        <v>532</v>
+      </c>
+      <c r="J42">
+        <v>21061</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>420</v>
+      </c>
+      <c r="N42">
+        <v>44436</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>2300</v>
+      </c>
+      <c r="Q42">
+        <v>4475</v>
+      </c>
+      <c r="R42">
+        <v>2480</v>
+      </c>
+      <c r="S42">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43">
+        <v>433164</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>240</v>
+      </c>
+      <c r="G43">
+        <v>35200</v>
+      </c>
+      <c r="H43">
+        <v>9440</v>
+      </c>
+      <c r="I43">
+        <v>84827</v>
+      </c>
+      <c r="J43">
+        <v>21006</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>420</v>
+      </c>
+      <c r="N43">
+        <v>44318</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>2350</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>7970</v>
+      </c>
+      <c r="S43">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44">
+        <v>431875</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>240</v>
+      </c>
+      <c r="G44">
+        <v>35200</v>
+      </c>
+      <c r="H44">
+        <v>9440</v>
+      </c>
+      <c r="I44">
+        <v>85084</v>
+      </c>
+      <c r="J44">
+        <v>21061</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>420</v>
+      </c>
+      <c r="N44">
+        <v>44436</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>2350</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45">
+        <v>430175</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2960</v>
+      </c>
+      <c r="F45">
+        <v>240</v>
+      </c>
+      <c r="G45">
+        <v>35200</v>
+      </c>
+      <c r="H45">
+        <v>9440</v>
+      </c>
+      <c r="I45">
+        <v>85084</v>
+      </c>
+      <c r="J45">
+        <v>21061</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>420</v>
+      </c>
+      <c r="N45">
+        <v>44436</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>2400</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>10880</v>
+      </c>
+      <c r="S45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46">
+        <v>448208</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>240</v>
+      </c>
+      <c r="G46">
+        <v>35200</v>
+      </c>
+      <c r="H46">
+        <v>9440</v>
+      </c>
+      <c r="I46">
+        <v>76248</v>
+      </c>
+      <c r="J46">
+        <v>21042</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>420</v>
+      </c>
+      <c r="N46">
+        <v>44387</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>2350</v>
+      </c>
+      <c r="Q46">
+        <v>2659</v>
+      </c>
+      <c r="R46">
+        <v>12800</v>
+      </c>
+      <c r="S46">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47">
+        <v>427375</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>240</v>
+      </c>
+      <c r="G47">
+        <v>35200</v>
+      </c>
+      <c r="H47">
+        <v>9440</v>
+      </c>
+      <c r="I47">
+        <v>84628</v>
+      </c>
+      <c r="J47">
+        <v>20949</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>420</v>
+      </c>
+      <c r="N47">
+        <v>44145</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>2350</v>
+      </c>
+      <c r="Q47">
+        <v>2659</v>
+      </c>
+      <c r="R47">
+        <v>5420</v>
+      </c>
+      <c r="S47">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48">
+        <v>430175</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>240</v>
+      </c>
+      <c r="G48">
+        <v>35200</v>
+      </c>
+      <c r="H48">
+        <v>9440</v>
+      </c>
+      <c r="I48">
+        <v>85084</v>
+      </c>
+      <c r="J48">
+        <v>21061</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>420</v>
+      </c>
+      <c r="N48">
+        <v>44436</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>2350</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>5760</v>
+      </c>
+      <c r="S48">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49">
+        <v>430915</v>
+      </c>
+      <c r="D49">
+        <v>12775</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>240</v>
+      </c>
+      <c r="G49">
+        <v>35200</v>
+      </c>
+      <c r="H49">
+        <v>9440</v>
+      </c>
+      <c r="I49">
+        <v>84631</v>
+      </c>
+      <c r="J49">
+        <v>20986</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>420</v>
+      </c>
+      <c r="N49">
+        <v>44332</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>2300</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>5260</v>
+      </c>
+      <c r="S49">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50">
+        <v>430175</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>240</v>
+      </c>
+      <c r="G50">
+        <v>35200</v>
+      </c>
+      <c r="H50">
+        <v>9440</v>
+      </c>
+      <c r="I50">
+        <v>532</v>
+      </c>
+      <c r="J50">
+        <v>21061</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>420</v>
+      </c>
+      <c r="N50">
+        <v>44436</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>2300</v>
+      </c>
+      <c r="Q50">
+        <v>4475</v>
+      </c>
+      <c r="R50">
+        <v>7540</v>
+      </c>
+      <c r="S50">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51">
+        <v>432575</v>
+      </c>
+      <c r="D51">
+        <v>12775</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>240</v>
+      </c>
+      <c r="G51">
+        <v>35200</v>
+      </c>
+      <c r="H51">
+        <v>9440</v>
+      </c>
+      <c r="I51">
+        <v>85084</v>
+      </c>
+      <c r="J51">
+        <v>21061</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>420</v>
+      </c>
+      <c r="N51">
+        <v>44436</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>2350</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>9660</v>
+      </c>
+      <c r="S51">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52">
+        <v>431875</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>240</v>
+      </c>
+      <c r="G52">
+        <v>35200</v>
+      </c>
+      <c r="H52">
+        <v>9440</v>
+      </c>
+      <c r="I52">
+        <v>85084</v>
+      </c>
+      <c r="J52">
+        <v>21061</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>420</v>
+      </c>
+      <c r="N52">
+        <v>44436</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>2350</v>
+      </c>
+      <c r="Q52">
+        <v>2659</v>
+      </c>
+      <c r="R52">
+        <v>15250</v>
+      </c>
+      <c r="S52">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53">
+        <v>430175</v>
+      </c>
+      <c r="D53">
+        <v>12390</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>240</v>
+      </c>
+      <c r="G53">
+        <v>35200</v>
+      </c>
+      <c r="H53">
+        <v>9440</v>
+      </c>
+      <c r="I53">
+        <v>85084</v>
+      </c>
+      <c r="J53">
+        <v>21061</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>420</v>
+      </c>
+      <c r="N53">
+        <v>44436</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>2350</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>17920</v>
+      </c>
+      <c r="S53">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54">
+        <v>338508</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>35200</v>
+      </c>
+      <c r="H54">
+        <v>9440</v>
+      </c>
+      <c r="I54">
+        <v>66192</v>
+      </c>
+      <c r="J54">
+        <v>16580</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>360</v>
+      </c>
+      <c r="N54">
+        <v>34821</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>1800</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>6110</v>
+      </c>
+      <c r="S54">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55">
+        <v>430175</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>240</v>
+      </c>
+      <c r="G55">
+        <v>35200</v>
+      </c>
+      <c r="H55">
+        <v>9440</v>
+      </c>
+      <c r="I55">
+        <v>85084</v>
+      </c>
+      <c r="J55">
+        <v>21061</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>420</v>
+      </c>
+      <c r="N55">
+        <v>44436</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>2350</v>
+      </c>
+      <c r="Q55">
+        <v>4475</v>
+      </c>
+      <c r="R55">
+        <v>2500</v>
+      </c>
+      <c r="S55">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56">
+        <v>430175</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>240</v>
+      </c>
+      <c r="G56">
+        <v>35200</v>
+      </c>
+      <c r="H56">
+        <v>9440</v>
+      </c>
+      <c r="I56">
+        <v>85084</v>
+      </c>
+      <c r="J56">
+        <v>21061</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>420</v>
+      </c>
+      <c r="N56">
+        <v>44436</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>2350</v>
+      </c>
+      <c r="Q56">
+        <v>1859</v>
+      </c>
+      <c r="R56">
+        <v>11660</v>
+      </c>
+      <c r="S56">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57">
+        <v>430915</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>240</v>
+      </c>
+      <c r="G57">
+        <v>35200</v>
+      </c>
+      <c r="H57">
+        <v>9440</v>
+      </c>
+      <c r="I57">
+        <v>84631</v>
+      </c>
+      <c r="J57">
+        <v>20986</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>420</v>
+      </c>
+      <c r="N57">
+        <v>44332</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>2300</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>10770</v>
+      </c>
+      <c r="S57">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58">
+        <v>429215</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>11700</v>
+      </c>
+      <c r="F58">
+        <v>240</v>
+      </c>
+      <c r="G58">
+        <v>35200</v>
+      </c>
+      <c r="H58">
+        <v>9440</v>
+      </c>
+      <c r="I58">
+        <v>84631</v>
+      </c>
+      <c r="J58">
+        <v>20986</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>420</v>
+      </c>
+      <c r="N58">
+        <v>44332</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>2350</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1050</v>
+      </c>
+      <c r="S58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59">
+        <v>429215</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>240</v>
+      </c>
+      <c r="G59">
+        <v>35200</v>
+      </c>
+      <c r="H59">
+        <v>9440</v>
+      </c>
+      <c r="I59">
+        <v>84631</v>
+      </c>
+      <c r="J59">
+        <v>20986</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>420</v>
+      </c>
+      <c r="N59">
+        <v>44332</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>2300</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>7710</v>
+      </c>
+      <c r="S59">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60">
+        <v>430915</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>240</v>
+      </c>
+      <c r="G60">
+        <v>35200</v>
+      </c>
+      <c r="H60">
+        <v>9440</v>
+      </c>
+      <c r="I60">
+        <v>84631</v>
+      </c>
+      <c r="J60">
+        <v>20986</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>420</v>
+      </c>
+      <c r="N60">
+        <v>44332</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>2300</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>10230</v>
+      </c>
+      <c r="S60">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61">
+        <v>430175</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>240</v>
+      </c>
+      <c r="G61">
+        <v>35200</v>
+      </c>
+      <c r="H61">
+        <v>9440</v>
+      </c>
+      <c r="I61">
+        <v>85084</v>
+      </c>
+      <c r="J61">
+        <v>21061</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>420</v>
+      </c>
+      <c r="N61">
+        <v>44436</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>2350</v>
+      </c>
+      <c r="Q61">
+        <v>2659</v>
+      </c>
+      <c r="R61">
+        <v>6130</v>
+      </c>
+      <c r="S61">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62">
+        <v>430175</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>240</v>
+      </c>
+      <c r="G62">
+        <v>35200</v>
+      </c>
+      <c r="H62">
+        <v>9440</v>
+      </c>
+      <c r="I62">
+        <v>85084</v>
+      </c>
+      <c r="J62">
+        <v>21061</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>420</v>
+      </c>
+      <c r="N62">
+        <v>44436</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>2350</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>15440</v>
+      </c>
+      <c r="S62">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63">
+        <v>429215</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>240</v>
+      </c>
+      <c r="G63">
+        <v>35200</v>
+      </c>
+      <c r="H63">
+        <v>9440</v>
+      </c>
+      <c r="I63">
+        <v>84631</v>
+      </c>
+      <c r="J63">
+        <v>20986</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>420</v>
+      </c>
+      <c r="N63">
+        <v>44332</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>2300</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>8670</v>
+      </c>
+      <c r="S63">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64">
+        <v>428931</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>240</v>
+      </c>
+      <c r="G64">
+        <v>35200</v>
+      </c>
+      <c r="H64">
+        <v>9440</v>
+      </c>
+      <c r="I64">
+        <v>84563</v>
+      </c>
+      <c r="J64">
+        <v>20972</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>420</v>
+      </c>
+      <c r="N64">
+        <v>44302</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>2300</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>11980</v>
+      </c>
+      <c r="S64">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65">
+        <v>338508</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>8360</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>35200</v>
+      </c>
+      <c r="H65">
+        <v>9440</v>
+      </c>
+      <c r="I65">
+        <v>66192</v>
+      </c>
+      <c r="J65">
+        <v>16580</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>360</v>
+      </c>
+      <c r="N65">
+        <v>34821</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>1800</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66">
+        <v>429215</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>240</v>
+      </c>
+      <c r="G66">
+        <v>35200</v>
+      </c>
+      <c r="H66">
+        <v>9440</v>
+      </c>
+      <c r="I66">
+        <v>84631</v>
+      </c>
+      <c r="J66">
+        <v>20986</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>420</v>
+      </c>
+      <c r="N66">
+        <v>44332</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>2300</v>
+      </c>
+      <c r="Q66">
+        <v>2659</v>
+      </c>
+      <c r="R66">
+        <v>14640</v>
+      </c>
+      <c r="S66">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67">
+        <v>429215</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>3000</v>
+      </c>
+      <c r="F67">
+        <v>240</v>
+      </c>
+      <c r="G67">
+        <v>35200</v>
+      </c>
+      <c r="H67">
+        <v>9440</v>
+      </c>
+      <c r="I67">
+        <v>84631</v>
+      </c>
+      <c r="J67">
+        <v>20986</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>420</v>
+      </c>
+      <c r="N67">
+        <v>44332</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>2300</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>5840</v>
+      </c>
+      <c r="S67">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68">
+        <v>430175</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>240</v>
+      </c>
+      <c r="G68">
+        <v>35200</v>
+      </c>
+      <c r="H68">
+        <v>9440</v>
+      </c>
+      <c r="I68">
+        <v>85084</v>
+      </c>
+      <c r="J68">
+        <v>21061</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>420</v>
+      </c>
+      <c r="N68">
+        <v>44436</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>2350</v>
+      </c>
+      <c r="Q68">
+        <v>4475</v>
+      </c>
+      <c r="R68">
+        <v>5540</v>
+      </c>
+      <c r="S68">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69">
+        <v>430175</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>240</v>
+      </c>
+      <c r="G69">
+        <v>35200</v>
+      </c>
+      <c r="H69">
+        <v>9440</v>
+      </c>
+      <c r="I69">
+        <v>85084</v>
+      </c>
+      <c r="J69">
+        <v>21061</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>420</v>
+      </c>
+      <c r="N69">
+        <v>44436</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>2350</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>12500</v>
+      </c>
+      <c r="S69">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70">
+        <v>431875</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>240</v>
+      </c>
+      <c r="G70">
+        <v>35200</v>
+      </c>
+      <c r="H70">
+        <v>9440</v>
+      </c>
+      <c r="I70">
+        <v>85084</v>
+      </c>
+      <c r="J70">
+        <v>21061</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>420</v>
+      </c>
+      <c r="N70">
+        <v>44436</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>2350</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>5920</v>
+      </c>
+      <c r="S70">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71">
+        <v>430915</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>240</v>
+      </c>
+      <c r="G71">
+        <v>35200</v>
+      </c>
+      <c r="H71">
+        <v>9440</v>
+      </c>
+      <c r="I71">
+        <v>84631</v>
+      </c>
+      <c r="J71">
+        <v>20986</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>420</v>
+      </c>
+      <c r="N71">
+        <v>44332</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>2300</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>10550</v>
+      </c>
+      <c r="S71">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72">
+        <v>433315</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>240</v>
+      </c>
+      <c r="G72">
+        <v>35200</v>
+      </c>
+      <c r="H72">
+        <v>9440</v>
+      </c>
+      <c r="I72">
+        <v>84631</v>
+      </c>
+      <c r="J72">
+        <v>20986</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>420</v>
+      </c>
+      <c r="N72">
+        <v>44332</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>2300</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>9820</v>
+      </c>
+      <c r="S72">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73">
+        <v>264908</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>13200</v>
+      </c>
+      <c r="H73">
+        <v>3544</v>
+      </c>
+      <c r="I73">
+        <v>53052</v>
+      </c>
+      <c r="J73">
+        <v>12900</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>360</v>
+      </c>
+      <c r="N73">
+        <v>27092</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1800</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>50</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74">
+        <v>307908</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>28000</v>
+      </c>
+      <c r="H74">
+        <v>9080</v>
+      </c>
+      <c r="I74">
+        <v>57384</v>
+      </c>
+      <c r="J74">
+        <v>15050</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>300</v>
+      </c>
+      <c r="N74">
+        <v>31604</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>1800</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75">
+        <v>375308</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>35200</v>
+      </c>
+      <c r="H75">
+        <v>9440</v>
+      </c>
+      <c r="I75">
+        <v>73560</v>
+      </c>
+      <c r="J75">
+        <v>18420</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>360</v>
+      </c>
+      <c r="N75">
+        <v>38681</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>2200</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1500</v>
+      </c>
+      <c r="S75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76">
+        <v>377108</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>35200</v>
+      </c>
+      <c r="H76">
+        <v>9440</v>
+      </c>
+      <c r="I76">
+        <v>73560</v>
+      </c>
+      <c r="J76">
+        <v>18420</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>360</v>
+      </c>
+      <c r="N76">
+        <v>38681</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>2200</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>5700</v>
+      </c>
+      <c r="S76">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77">
+        <v>328675</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>9600</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>35200</v>
+      </c>
+      <c r="H77">
+        <v>9440</v>
+      </c>
+      <c r="I77">
+        <v>64228</v>
+      </c>
+      <c r="J77">
+        <v>16088</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>360</v>
+      </c>
+      <c r="N77">
+        <v>33787</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>1800</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>1210</v>
+      </c>
+      <c r="S77">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78">
+        <v>328908</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>35200</v>
+      </c>
+      <c r="H78">
+        <v>9440</v>
+      </c>
+      <c r="I78">
+        <v>64284</v>
+      </c>
+      <c r="J78">
+        <v>16100</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>360</v>
+      </c>
+      <c r="N78">
+        <v>33811</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>1800</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>7040</v>
+      </c>
+      <c r="S78">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79">
+        <v>328908</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>8400</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>35200</v>
+      </c>
+      <c r="H79">
+        <v>9440</v>
+      </c>
+      <c r="I79">
+        <v>64284</v>
+      </c>
+      <c r="J79">
+        <v>16100</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>360</v>
+      </c>
+      <c r="N79">
+        <v>33811</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>1800</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>1060</v>
+      </c>
+      <c r="S79">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80">
+        <v>328908</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>9600</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>35200</v>
+      </c>
+      <c r="H80">
+        <v>9440</v>
+      </c>
+      <c r="I80">
+        <v>64284</v>
+      </c>
+      <c r="J80">
+        <v>16100</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>360</v>
+      </c>
+      <c r="N80">
+        <v>33811</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>1800</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>7920</v>
+      </c>
+      <c r="S80">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81">
+        <v>330408</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>8800</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>35200</v>
+      </c>
+      <c r="H81">
+        <v>9440</v>
+      </c>
+      <c r="I81">
+        <v>64284</v>
+      </c>
+      <c r="J81">
+        <v>16100</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>360</v>
+      </c>
+      <c r="N81">
+        <v>33811</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>1800</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>6730</v>
+      </c>
+      <c r="S81">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82">
+        <v>371608</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>506</v>
+      </c>
+      <c r="F82">
+        <v>960</v>
+      </c>
+      <c r="G82">
+        <v>35200</v>
+      </c>
+      <c r="H82">
+        <v>9440</v>
+      </c>
+      <c r="I82">
+        <v>71856</v>
+      </c>
+      <c r="J82">
+        <v>18150</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>360</v>
+      </c>
+      <c r="N82">
+        <v>38114</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>2200</v>
+      </c>
+      <c r="Q82">
+        <v>4625</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83">
+        <v>369908</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>10406</v>
+      </c>
+      <c r="F83">
+        <v>960</v>
+      </c>
+      <c r="G83">
+        <v>35200</v>
+      </c>
+      <c r="H83">
+        <v>9440</v>
+      </c>
+      <c r="I83">
+        <v>71856</v>
+      </c>
+      <c r="J83">
+        <v>18150</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>360</v>
+      </c>
+      <c r="N83">
+        <v>38114</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>2200</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>10310</v>
+      </c>
+      <c r="S83">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84">
+        <v>369908</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>506</v>
+      </c>
+      <c r="F84">
+        <v>960</v>
+      </c>
+      <c r="G84">
+        <v>35200</v>
+      </c>
+      <c r="H84">
+        <v>9440</v>
+      </c>
+      <c r="I84">
+        <v>71856</v>
+      </c>
+      <c r="J84">
+        <v>18150</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>360</v>
+      </c>
+      <c r="N84">
+        <v>38114</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>2200</v>
+      </c>
+      <c r="Q84">
+        <v>1709</v>
+      </c>
+      <c r="R84">
+        <v>5580</v>
+      </c>
+      <c r="S84">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85">
+        <v>369332</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>10800</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>35200</v>
+      </c>
+      <c r="H85">
+        <v>9440</v>
+      </c>
+      <c r="I85">
+        <v>71856</v>
+      </c>
+      <c r="J85">
+        <v>18150</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>360</v>
+      </c>
+      <c r="N85">
+        <v>38114</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>2200</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>10250</v>
+      </c>
+      <c r="S85">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86">
+        <v>369332</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>10800</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>35200</v>
+      </c>
+      <c r="H86">
+        <v>9440</v>
+      </c>
+      <c r="I86">
+        <v>71856</v>
+      </c>
+      <c r="J86">
+        <v>18150</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>360</v>
+      </c>
+      <c r="N86">
+        <v>38114</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>2200</v>
+      </c>
+      <c r="Q86">
+        <v>1625</v>
+      </c>
+      <c r="R86">
+        <v>10170</v>
+      </c>
+      <c r="S86">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87">
+        <v>368757</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>35200</v>
+      </c>
+      <c r="H87">
+        <v>9440</v>
+      </c>
+      <c r="I87">
+        <v>71856</v>
+      </c>
+      <c r="J87">
+        <v>18150</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>360</v>
+      </c>
+      <c r="N87">
+        <v>51972</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>2200</v>
+      </c>
+      <c r="Q87">
+        <v>1667</v>
+      </c>
+      <c r="R87">
+        <v>8900</v>
+      </c>
+      <c r="S87">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88">
+        <v>447457</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>35200</v>
+      </c>
+      <c r="H88">
+        <v>9440</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>22010</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>840</v>
+      </c>
+      <c r="N88">
+        <v>46223</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>2400</v>
+      </c>
+      <c r="Q88">
+        <v>3600</v>
+      </c>
+      <c r="R88">
+        <v>9330</v>
+      </c>
+      <c r="S88">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89">
+        <v>369381</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>35200</v>
+      </c>
+      <c r="H89">
+        <v>9440</v>
+      </c>
+      <c r="I89">
+        <v>71856</v>
+      </c>
+      <c r="J89">
+        <v>18150</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>360</v>
+      </c>
+      <c r="N89">
+        <v>38114</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>2200</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>9650</v>
+      </c>
+      <c r="S89">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90">
+        <v>361630</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>35200</v>
+      </c>
+      <c r="H90">
+        <v>9440</v>
+      </c>
+      <c r="I90">
+        <v>71424</v>
+      </c>
+      <c r="J90">
+        <v>17880</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>360</v>
+      </c>
+      <c r="N90">
+        <v>37549</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>2200</v>
+      </c>
+      <c r="Q90">
+        <v>1459</v>
+      </c>
+      <c r="R90">
+        <v>300</v>
+      </c>
+      <c r="S90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91">
+        <v>362477</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>35665</v>
+      </c>
+      <c r="H91">
+        <v>10021</v>
+      </c>
+      <c r="I91">
+        <v>71117</v>
+      </c>
+      <c r="J91">
+        <v>17949</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>160</v>
+      </c>
+      <c r="N91">
+        <v>36983</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>2200</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>9440</v>
+      </c>
+      <c r="S91">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92">
+        <v>303554</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>28000</v>
+      </c>
+      <c r="H92">
+        <v>9080</v>
+      </c>
+      <c r="I92">
+        <v>56976</v>
+      </c>
+      <c r="J92">
+        <v>14978</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>31506</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>1800</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93">
+        <v>274450</v>
+      </c>
+      <c r="G93">
+        <v>33120</v>
+      </c>
+      <c r="H93">
+        <v>6840</v>
+      </c>
+      <c r="I93">
+        <v>55587</v>
+      </c>
+      <c r="J93">
+        <v>13034</v>
+      </c>
+      <c r="M93">
+        <v>150</v>
+      </c>
+      <c r="N93">
+        <v>26895</v>
+      </c>
+      <c r="P93">
+        <v>1630</v>
+      </c>
+      <c r="S93">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94">
+        <v>318476</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>20400</v>
+      </c>
+      <c r="H94">
+        <v>3544</v>
+      </c>
+      <c r="I94">
+        <v>41664</v>
+      </c>
+      <c r="J94">
+        <v>9274</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>360</v>
+      </c>
+      <c r="N94">
+        <v>9006</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>1660</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>2470</v>
+      </c>
+      <c r="S94">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
